--- a/data/trans_orig/CAGE-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CAGE-Provincia-trans_orig.xlsx
@@ -1065,7 +1065,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -1634,7 +1634,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -2203,7 +2203,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -2772,7 +2772,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -3341,7 +3341,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -4479,7 +4479,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -5048,7 +5048,7 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -5617,7 +5617,7 @@
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -6430,7 +6430,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -6999,7 +6999,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -7568,7 +7568,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -8137,7 +8137,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -8706,7 +8706,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -9275,7 +9275,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -9844,7 +9844,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -10413,7 +10413,7 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -10982,7 +10982,7 @@
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -11795,7 +11795,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -12364,7 +12364,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -12933,7 +12933,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -13502,7 +13502,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -14071,7 +14071,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -14640,7 +14640,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -15209,7 +15209,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -15778,7 +15778,7 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -16347,7 +16347,7 @@
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -17160,7 +17160,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -17729,7 +17729,7 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -18298,7 +18298,7 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -18867,7 +18867,7 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -19436,7 +19436,7 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -20005,7 +20005,7 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -20574,7 +20574,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -21143,7 +21143,7 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -21712,7 +21712,7 @@
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Beberdor social</t>
+          <t>Bebedor social</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
